--- a/covasim/cova_oregon/oregon-data.xlsx
+++ b/covasim/cova_oregon/oregon-data.xlsx
@@ -166,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,29 +215,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>43890</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <f aca="false">C2+D2</f>
-        <v>4</v>
+        <v>43882</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">C2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">D2</f>
-        <v>3</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">F2+G2</f>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">E2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,29 +244,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>43891</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">C3+D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
+        <v>43883</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <f aca="false">F2+C3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <f aca="false">G2+D3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <f aca="false">F3+G3</f>
-        <v>4</v>
+        <f aca="false">H2+E3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,29 +273,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>43892</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">C4+D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
+        <v>43884</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <f aca="false">F3+C4</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <f aca="false">G3+D4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <f aca="false">F4+G4</f>
-        <v>4</v>
+        <f aca="false">H3+E4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,29 +302,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>43893</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">C5+D5</f>
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="n">
+        <v>43885</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <f aca="false">F4+C5</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <f aca="false">G4+D5</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">F5+G5</f>
-        <v>32</v>
+        <f aca="false">H4+E5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,29 +331,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>43894</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">C6+D6</f>
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="n">
+        <v>43886</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <f aca="false">F5+C6</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <f aca="false">G5+D6</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">F6+G6</f>
-        <v>48</v>
+        <f aca="false">H5+E6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,29 +360,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>43895</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">C7+D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
+        <v>43887</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">F6+C7</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <f aca="false">G6+D7</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <f aca="false">F7+G7</f>
-        <v>48</v>
+        <f aca="false">H6+E7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,29 +389,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>43896</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">C8+D8</f>
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="n">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">F7+C8</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">G7+D8</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">F8+G8</f>
-        <v>67</v>
+        <f aca="false">H7+E8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,29 +418,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>43897</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">C9+D9</f>
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="n">
+        <v>43889</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <f aca="false">F8+C9</f>
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <f aca="false">G8+D9</f>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <f aca="false">F9+G9</f>
-        <v>84</v>
+        <f aca="false">H8+E9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,29 +447,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>43898</v>
+        <v>43890</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">C10+D10</f>
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <f aca="false">F9+C10</f>
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <f aca="false">G9+D10</f>
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H10" s="0" t="n">
-        <f aca="false">F10+G10</f>
-        <v>114</v>
+        <f aca="false">H9+E10</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,29 +477,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>43899</v>
+        <v>43891</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">C11+D11</f>
-        <v>65</v>
-      </c>
-      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <f aca="false">F10+C11</f>
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <f aca="false">G10+D11</f>
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="H11" s="0" t="n">
-        <f aca="false">F11+G11</f>
-        <v>179</v>
+        <f aca="false">H10+E11</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,29 +507,29 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>43900</v>
+        <v>43892</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">C12+D12</f>
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <f aca="false">F11+C12</f>
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <f aca="false">G11+D12</f>
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="H12" s="0" t="n">
-        <f aca="false">F12+G12</f>
-        <v>228</v>
+        <f aca="false">H11+E12</f>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,29 +537,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">C13+D13</f>
-        <v>79</v>
-      </c>
-      <c r="F13" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <f aca="false">F12+C13</f>
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <f aca="false">G12+D13</f>
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="H13" s="0" t="n">
-        <f aca="false">F13+G13</f>
-        <v>307</v>
+        <f aca="false">H12+E13</f>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,29 +567,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">C14+D14</f>
-        <v>40</v>
-      </c>
-      <c r="F14" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <f aca="false">F13+C14</f>
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <f aca="false">G13+D14</f>
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="n">
-        <f aca="false">F14+G14</f>
-        <v>347</v>
+        <f aca="false">H13+E14</f>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,28 +597,268 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>43903</v>
+        <v>43895</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">C15+D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">F14+C15</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">G14+D15</f>
+        <v>45</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">H14+E15</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>43896</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">C16+D16</f>
+        <v>19</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">F15+C16</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">G15+D16</f>
+        <v>64</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">H15+E16</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>43897</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">C17+D17</f>
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">F16+C17</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">G16+D17</f>
+        <v>77</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">H16+E17</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>43898</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <f aca="false">C18+D18</f>
+        <v>30</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">F17+C18</f>
+        <v>14</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">G17+D18</f>
+        <v>100</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">H17+E18</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>43899</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">C19+D19</f>
+        <v>65</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">F18+C19</f>
+        <v>14</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">G18+D19</f>
+        <v>165</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">H18+E19</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>43900</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">C20+D20</f>
+        <v>49</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">F19+C20</f>
+        <v>15</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">G19+D20</f>
+        <v>213</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">H19+E20</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>43901</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">C21+D21</f>
+        <v>79</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">F20+C21</f>
+        <v>21</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">G20+D21</f>
+        <v>286</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">H20+E21</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>43902</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">C22+D22</f>
+        <v>40</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">F21+C22</f>
+        <v>30</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">G21+D22</f>
+        <v>317</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">H21+E22</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>43903</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">C23+D23</f>
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false">F14+C15</f>
+      <c r="F23" s="0" t="n">
+        <f aca="false">F22+C23</f>
         <v>32</v>
       </c>
-      <c r="G15" s="4" t="n">
-        <f aca="false">G14+D15</f>
+      <c r="G23" s="0" t="n">
+        <f aca="false">G22+D23</f>
         <v>337</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">F15+G15</f>
+      <c r="H23" s="0" t="n">
+        <f aca="false">H22+E23</f>
         <v>369</v>
       </c>
     </row>

--- a/covasim/cova_oregon/oregon-data.xlsx
+++ b/covasim/cova_oregon/oregon-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>day</t>
   </si>
@@ -47,12 +47,18 @@
   <si>
     <t>yield</t>
   </si>
+  <si>
+    <t>new_infections</t>
+  </si>
+  <si>
+    <t>cum_infections</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,6 +73,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -98,6 +110,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +158,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$C$1</c:f>
+              <c:f>'data-bxEvA'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -148,7 +169,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$C$2:$C$23</c:f>
+              <c:f>'data-bxEvA'!$D$6:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -228,7 +249,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$D$1</c:f>
+              <c:f>'data-bxEvA'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -239,7 +260,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$D$2:$D$23</c:f>
+              <c:f>'data-bxEvA'!$E$6:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -319,7 +340,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$E$1</c:f>
+              <c:f>'data-bxEvA'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -330,7 +351,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$E$2:$E$23</c:f>
+              <c:f>'data-bxEvA'!$F$6:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -415,11 +436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168658432"/>
-        <c:axId val="168659968"/>
+        <c:axId val="152097920"/>
+        <c:axId val="152099456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168658432"/>
+        <c:axId val="152097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168659968"/>
+        <c:crossAx val="152099456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -436,7 +457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168659968"/>
+        <c:axId val="152099456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168658432"/>
+        <c:crossAx val="152097920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -494,7 +515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$F$1</c:f>
+              <c:f>'data-bxEvA'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -505,7 +526,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$F$2:$F$23</c:f>
+              <c:f>'data-bxEvA'!$H$6:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -585,7 +606,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$G$1</c:f>
+              <c:f>'data-bxEvA'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -596,7 +617,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$G$2:$G$23</c:f>
+              <c:f>'data-bxEvA'!$I$6:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -676,7 +697,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$H$1</c:f>
+              <c:f>'data-bxEvA'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -687,7 +708,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$H$2:$H$23</c:f>
+              <c:f>'data-bxEvA'!$J$6:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -772,11 +793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154415104"/>
-        <c:axId val="154416640"/>
+        <c:axId val="152780800"/>
+        <c:axId val="152782336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154415104"/>
+        <c:axId val="152780800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154416640"/>
+        <c:crossAx val="152782336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154416640"/>
+        <c:axId val="152782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154415104"/>
+        <c:crossAx val="152780800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,7 +876,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-bxEvA'!$I$1</c:f>
+              <c:f>'data-bxEvA'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -866,7 +887,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'data-bxEvA'!$I$2:$I$23</c:f>
+              <c:f>'data-bxEvA'!$K$6:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
@@ -918,11 +939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86059264"/>
-        <c:axId val="86061056"/>
+        <c:axId val="152809856"/>
+        <c:axId val="152811392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86059264"/>
+        <c:axId val="152809856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86061056"/>
+        <c:crossAx val="152811392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -939,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86061056"/>
+        <c:axId val="152811392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +971,198 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86059264"/>
+        <c:crossAx val="152809856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-bxEvA'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new_infections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-bxEvA'!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="117736576"/>
+        <c:axId val="117738112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117736576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117738112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117738112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117736576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,15 +1188,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>454818</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>4764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1006,15 +1218,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>497681</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1036,16 +1248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>288131</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230981</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>326231</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>316706</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1059,6 +1271,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>616743</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1354,763 +1596,1062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.06640625" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" customWidth="1"/>
-    <col min="4" max="4" width="12.9296875" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.06640625" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="12.9296875" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="1027" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="3">
+        <v>43878</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43879</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f>G2+C3</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43880</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G27" si="0">G3+C4</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43881</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>43882</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <f>C2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f>D2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <f>E2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43883</v>
+      </c>
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>43883</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F23" si="0">F2+C3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G23" si="1">G2+D3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H23" si="2">H2+E3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H27" si="1">H6+D7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I27" si="2">I6+E7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J27" si="3">J6+F7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43884</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43885</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>43884</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43886</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43887</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43888</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43889</v>
+      </c>
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>43885</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43890</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F27" si="4">D14+E14</f>
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>43886</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43887</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" ref="K14:K27" si="5">D14/F14</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43891</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43888</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43892</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43889</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43893</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43890</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" ref="E10:E23" si="3">C10+D10</f>
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I3:I23" si="4">C10/E10</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43891</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+        <v>29</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43894</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="I18">
         <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43895</v>
+      </c>
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>43892</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H12">
+      <c r="I19">
         <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43896</v>
+      </c>
+      <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43893</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="4"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>43894</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>43895</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43896</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
         <v>19</v>
       </c>
-      <c r="E16" s="4">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43897</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>0.23529411764705882</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>43898</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="4"/>
-        <v>0.23333333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>43899</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>65</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>43900</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>213</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>228</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>2.0408163265306121E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>43901</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>73</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>286</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>307</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="4"/>
-        <v>7.5949367088607597E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>43902</v>
-      </c>
-      <c r="C22" s="4">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4">
-        <v>31</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="F22">
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G22">
+      <c r="H20">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43897</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="5"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43898</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="5"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43899</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>65</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43900</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43901</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="5"/>
+        <v>7.5949367088607597E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43902</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
         <v>317</v>
       </c>
-      <c r="H22">
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>347</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43903</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>347</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="4"/>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>43903</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4">
+        <v>337</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>337</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
         <v>369</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="4"/>
+      <c r="K27" s="5">
+        <f t="shared" si="5"/>
         <v>9.0909090909090912E-2</v>
       </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>